--- a/teaching/traditional_assets/database/data/india/india_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/india/india_insurance_prop_cas.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,49 +591,49 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.10715</v>
+        <v>0.16</v>
       </c>
       <c r="E2">
-        <v>0.195</v>
+        <v>0.198</v>
       </c>
       <c r="F2">
-        <v>0.261</v>
+        <v>0.1185</v>
       </c>
       <c r="G2">
-        <v>0.1674664697920512</v>
+        <v>0.07990938645638793</v>
       </c>
       <c r="H2">
-        <v>0.1674664697920512</v>
+        <v>0.07990938645638793</v>
       </c>
       <c r="I2">
-        <v>0.1784887591558593</v>
+        <v>0.08727661855357467</v>
       </c>
       <c r="J2">
-        <v>0.1349461495584586</v>
+        <v>0.06870250687117567</v>
       </c>
       <c r="K2">
-        <v>317.2</v>
+        <v>391.4</v>
       </c>
       <c r="L2">
-        <v>0.04336710279862734</v>
+        <v>0.0676834751331535</v>
       </c>
       <c r="M2">
-        <v>94.68559999999999</v>
+        <v>0.244</v>
       </c>
       <c r="N2">
-        <v>0.007109969738610679</v>
+        <v>1.972338757264916e-05</v>
       </c>
       <c r="O2">
-        <v>0.2985044136191677</v>
+        <v>0.000623403168114461</v>
       </c>
       <c r="P2">
-        <v>94.68559999999999</v>
+        <v>0.244</v>
       </c>
       <c r="Q2">
-        <v>0.007109969738610679</v>
+        <v>1.972338757264916e-05</v>
       </c>
       <c r="R2">
-        <v>0.2985044136191677</v>
+        <v>0.000623403168114461</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,73 +642,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2236.9</v>
+        <v>1587.15</v>
       </c>
       <c r="V2">
-        <v>0.1679694833036727</v>
+        <v>0.128294977811189</v>
       </c>
       <c r="W2">
-        <v>0.192698164779383</v>
+        <v>0.1337420777421839</v>
       </c>
       <c r="X2">
-        <v>0.05494709731410585</v>
+        <v>0.05426910984075353</v>
       </c>
       <c r="Y2">
-        <v>0.1377510674652772</v>
+        <v>0.07947296790143038</v>
       </c>
       <c r="Z2">
-        <v>1.219765729147437</v>
+        <v>1.220848966229092</v>
       </c>
       <c r="AA2">
-        <v>0.1928843579653453</v>
+        <v>0.1377060874950877</v>
       </c>
       <c r="AB2">
-        <v>0.05476235806014128</v>
+        <v>0.05417451168483343</v>
       </c>
       <c r="AC2">
-        <v>0.138121999905204</v>
+        <v>0.08353157581025424</v>
       </c>
       <c r="AD2">
-        <v>7969.3</v>
+        <v>66</v>
       </c>
       <c r="AE2">
-        <v>0.02834453149265521</v>
+        <v>0.003851141942463297</v>
       </c>
       <c r="AF2">
-        <v>7969.328344531493</v>
+        <v>66.00385114194246</v>
       </c>
       <c r="AG2">
-        <v>5732.428344531492</v>
+        <v>-1521.146148858058</v>
       </c>
       <c r="AH2">
-        <v>0.3743818990750972</v>
+        <v>0.00530701133736068</v>
       </c>
       <c r="AI2">
-        <v>0.5258329224869792</v>
+        <v>0.01200920741849313</v>
       </c>
       <c r="AJ2">
-        <v>0.3009191648749716</v>
+        <v>-0.1401983980510626</v>
       </c>
       <c r="AK2">
-        <v>0.4437300786619632</v>
+        <v>-0.3891440540833393</v>
       </c>
       <c r="AL2">
-        <v>598.794</v>
+        <v>5.538</v>
       </c>
       <c r="AM2">
-        <v>598.794</v>
+        <v>5.538</v>
       </c>
       <c r="AN2">
-        <v>6.009912324494391</v>
+        <v>0.1282788860728002</v>
       </c>
       <c r="AO2">
-        <v>2.180215566622244</v>
+        <v>91.13398338750451</v>
       </c>
       <c r="AP2">
-        <v>4.323013534072101</v>
+        <v>-2.95652929590063</v>
       </c>
       <c r="AQ2">
-        <v>2.180215566622244</v>
+        <v>91.13398338750451</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cholamandalam Financial Holdings Limited (BSE:504973)</t>
+          <t>ICICI Lombard General Insurance Company Limited (BSE:540716)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -728,121 +728,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0553</v>
+        <v>0.16</v>
       </c>
       <c r="E3">
-        <v>0.158</v>
+        <v>0.198</v>
+      </c>
+      <c r="F3">
+        <v>0.187</v>
       </c>
       <c r="G3">
-        <v>0.5056870404411764</v>
+        <v>0.1468103883005547</v>
       </c>
       <c r="H3">
-        <v>0.5056870404411764</v>
+        <v>0.1468103883005547</v>
       </c>
       <c r="I3">
-        <v>0.5635914522058824</v>
+        <v>0.1601760147324833</v>
       </c>
       <c r="J3">
-        <v>0.3552695339667447</v>
+        <v>0.1205625917341272</v>
       </c>
       <c r="K3">
-        <v>98.7</v>
+        <v>189</v>
       </c>
       <c r="L3">
-        <v>0.05669806985294118</v>
+        <v>0.1191376701966717</v>
       </c>
       <c r="M3">
-        <v>14.7</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.01120939454018606</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.148936170212766</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>14.7</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.01120939454018606</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.148936170212766</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>916.8</v>
+        <v>3.65</v>
       </c>
       <c r="V3">
-        <v>0.6991001982613999</v>
+        <v>0.0003856109027520997</v>
       </c>
       <c r="W3">
-        <v>0.192698164779383</v>
+        <v>0.2282608695652174</v>
       </c>
       <c r="X3">
-        <v>0.2046967695537994</v>
+        <v>0.05437859352681861</v>
       </c>
       <c r="Y3">
-        <v>-0.01199860477441633</v>
+        <v>0.1738822760383988</v>
       </c>
       <c r="Z3">
-        <v>3.5647221920748</v>
+        <v>1.843785331614338</v>
       </c>
       <c r="AA3">
-        <v>1.266437191899327</v>
+        <v>0.2222915381807918</v>
       </c>
       <c r="AB3">
-        <v>0.05562459635239986</v>
+        <v>0.05418939721497843</v>
       </c>
       <c r="AC3">
-        <v>1.210812595546927</v>
+        <v>0.1681021409658134</v>
       </c>
       <c r="AD3">
-        <v>7900.7</v>
+        <v>66</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.003851141942463297</v>
       </c>
       <c r="AF3">
-        <v>7900.7</v>
+        <v>66.00385114194246</v>
       </c>
       <c r="AG3">
-        <v>6983.9</v>
+        <v>62.35385114194246</v>
       </c>
       <c r="AH3">
-        <v>0.8576437511533743</v>
+        <v>0.006924809785817243</v>
       </c>
       <c r="AI3">
-        <v>0.86875295514773</v>
+        <v>0.06339795119338541</v>
       </c>
       <c r="AJ3">
-        <v>0.8419104794281099</v>
+        <v>0.006544375272346265</v>
       </c>
       <c r="AK3">
-        <v>0.8540385203301742</v>
+        <v>0.06010277090716715</v>
       </c>
       <c r="AL3">
-        <v>593.1</v>
+        <v>5.45</v>
       </c>
       <c r="AM3">
-        <v>593.1</v>
+        <v>5.45</v>
       </c>
       <c r="AN3">
-        <v>7.959601047753375</v>
+        <v>0.2568053415511042</v>
       </c>
       <c r="AO3">
-        <v>1.654189849940988</v>
+        <v>46.62385321100917</v>
       </c>
       <c r="AP3">
-        <v>7.035966149506346</v>
+        <v>0.2426182127202007</v>
       </c>
       <c r="AQ3">
-        <v>1.654189849940988</v>
+        <v>46.62385321100917</v>
       </c>
     </row>
     <row r="4">
@@ -853,7 +853,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ICICI Lombard General Insurance Company Limited (BSE:540716)</t>
+          <t>The New India Assurance Company Limited (BSE:540769)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -861,50 +861,44 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.159</v>
-      </c>
-      <c r="E4">
-        <v>0.232</v>
-      </c>
       <c r="F4">
-        <v>0.261</v>
+        <v>0.05</v>
       </c>
       <c r="G4">
-        <v>0.1554828150572831</v>
+        <v>0.05461824420932228</v>
       </c>
       <c r="H4">
-        <v>0.1554828150572831</v>
+        <v>0.05461824420932228</v>
       </c>
       <c r="I4">
-        <v>0.1552342593084789</v>
+        <v>0.0597178533981508</v>
       </c>
       <c r="J4">
-        <v>0.1024879948552753</v>
+        <v>0.0490686122543641</v>
       </c>
       <c r="K4">
-        <v>153.5</v>
+        <v>202.4</v>
       </c>
       <c r="L4">
-        <v>0.1004909983633388</v>
+        <v>0.04823181774854638</v>
       </c>
       <c r="M4">
-        <v>44.9856</v>
+        <v>0.244</v>
       </c>
       <c r="N4">
-        <v>0.005070685437965666</v>
+        <v>8.397577092511013e-05</v>
       </c>
       <c r="O4">
-        <v>0.2930657980456026</v>
+        <v>0.001205533596837945</v>
       </c>
       <c r="P4">
-        <v>44.9856</v>
+        <v>0.244</v>
       </c>
       <c r="Q4">
-        <v>0.005070685437965666</v>
+        <v>8.397577092511013e-05</v>
       </c>
       <c r="R4">
-        <v>0.2930657980456026</v>
+        <v>0.001205533596837945</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -913,201 +907,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>36.2</v>
+        <v>1583.5</v>
       </c>
       <c r="V4">
-        <v>0.004080390455042438</v>
+        <v>0.544982103524229</v>
       </c>
       <c r="W4">
-        <v>0.2072363980018901</v>
+        <v>0.03922328591915043</v>
       </c>
       <c r="X4">
-        <v>0.05494709731410585</v>
+        <v>0.05415962615468844</v>
       </c>
       <c r="Y4">
-        <v>0.1522893006877842</v>
+        <v>-0.01493634023553802</v>
       </c>
       <c r="Z4">
-        <v>1.882019042695878</v>
+        <v>1.08257874777494</v>
       </c>
       <c r="AA4">
-        <v>0.1928843579653453</v>
+        <v>0.05312063680938357</v>
       </c>
       <c r="AB4">
-        <v>0.05476235806014128</v>
+        <v>0.05415962615468844</v>
       </c>
       <c r="AC4">
-        <v>0.138121999905204</v>
+        <v>-0.001038989345304879</v>
       </c>
       <c r="AD4">
-        <v>68.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.02834453149265521</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>68.62834453149264</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>32.42834453149264</v>
+        <v>-1583.5</v>
       </c>
       <c r="AH4">
-        <v>0.007676266674642923</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.07654045842968796</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.003641944868349594</v>
+        <v>-1.197715755237879</v>
       </c>
       <c r="AK4">
-        <v>0.03768860560858212</v>
+        <v>-0.551453943931743</v>
       </c>
       <c r="AL4">
-        <v>5.66</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="AM4">
-        <v>5.66</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="AN4">
-        <v>0.287358729254459</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>41.8904593639576</v>
+        <v>2847.727272727273</v>
       </c>
       <c r="AP4">
-        <v>0.1358391818716547</v>
+        <v>-6.149514563106796</v>
       </c>
       <c r="AQ4">
-        <v>41.8904593639576</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>The New India Assurance Company Limited (BSE:540769)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Insurance (Prop/Cas.)</t>
-        </is>
-      </c>
-      <c r="G5">
-        <v>0.02647058823529412</v>
-      </c>
-      <c r="H5">
-        <v>0.02647058823529412</v>
-      </c>
-      <c r="I5">
-        <v>0.02157686604053386</v>
-      </c>
-      <c r="J5">
-        <v>0.02109274913531534</v>
-      </c>
-      <c r="K5">
-        <v>65</v>
-      </c>
-      <c r="L5">
-        <v>0.01606524962926347</v>
-      </c>
-      <c r="M5">
-        <v>35</v>
-      </c>
-      <c r="N5">
-        <v>0.01116712398698233</v>
-      </c>
-      <c r="O5">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="P5">
-        <v>35</v>
-      </c>
-      <c r="Q5">
-        <v>0.01116712398698233</v>
-      </c>
-      <c r="R5">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>1283.9</v>
-      </c>
-      <c r="V5">
-        <v>0.4096420139110459</v>
-      </c>
-      <c r="W5">
-        <v>0.01092455335383788</v>
-      </c>
-      <c r="X5">
-        <v>0.0547545709727652</v>
-      </c>
-      <c r="Y5">
-        <v>-0.04383001761892732</v>
-      </c>
-      <c r="Z5">
-        <v>0.861490766547926</v>
-      </c>
-      <c r="AA5">
-        <v>0.01817120862118592</v>
-      </c>
-      <c r="AB5">
-        <v>0.0547545709727652</v>
-      </c>
-      <c r="AC5">
-        <v>-0.03658336235157929</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>-1283.9</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>-0.6938874777063181</v>
-      </c>
-      <c r="AK5">
-        <v>-0.3308338486909916</v>
-      </c>
-      <c r="AL5">
-        <v>0.034</v>
-      </c>
-      <c r="AM5">
-        <v>0.034</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>2567.647058823529</v>
-      </c>
-      <c r="AP5">
-        <v>-13.55755015839493</v>
-      </c>
-      <c r="AQ5">
-        <v>2567.647058823529</v>
+        <v>2847.727272727273</v>
       </c>
     </row>
   </sheetData>
